--- a/Tests/WebVella.DocumentTemplates.Tests/Files/TemplatePlacement6.xlsx
+++ b/Tests/WebVella.DocumentTemplates.Tests/Files/TemplatePlacement6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\WebVella.Tefter\tests\WebVella.Tefter.Tests\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\WebVella.DocumentTemplates\Tests\WebVella.DocumentTemplates.Tests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D3AE01-85E6-4E3F-8842-81D7B867F2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B21B2E-A7E9-4661-A58C-99C73CBFEBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16224" yWindow="7632" windowWidth="35976" windowHeight="19320" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
+    <workbookView xWindow="7584" yWindow="5928" windowWidth="35976" windowHeight="19320" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>{{name(F=H)}}</t>
   </si>
   <si>
-    <t>{{price}}</t>
+    <t>{{price(F=V)}}</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
